--- a/inst/extdata/land_cover_classes.xlsx
+++ b/inst/extdata/land_cover_classes.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="7380"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="all" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>class.description</t>
   </si>
@@ -192,12 +193,23 @@
   <si>
     <t>Perennial Ice and Snow</t>
   </si>
+  <si>
+    <t>planted.
+cultivated</t>
+  </si>
+  <si>
+    <t>Grassland.
+Herbaceous</t>
+  </si>
+  <si>
+    <t>National Land Cover Database Cover Clases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +230,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -235,11 +255,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -251,6 +388,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +748,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="51" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30">
+        <v>11</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="31">
+        <v>21</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32">
+        <v>22</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32">
+        <v>23</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="33">
+        <v>24</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="32">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31">
+        <v>41</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="32">
+        <v>42</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33">
+        <v>43</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="31">
+        <v>51</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="33">
+        <v>52</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="30">
+        <v>71</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="31">
+        <v>81</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="33">
+        <v>82</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="31">
+        <v>90</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="33">
+        <v>95</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +1027,7 @@
     <col min="4" max="4" width="42" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -559,21 +1041,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -588,62 +1070,62 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="12">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="12">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="16">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,86 +1140,86 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>41</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="12">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="16">
         <v>43</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="9">
         <v>51</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="16">
         <v>52</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>71</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -769,7 +1251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -784,58 +1266,58 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="9">
         <v>81</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="16">
         <v>82</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="9">
         <v>90</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="16">
         <v>95</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
